--- a/server/data/game_state.xlsx
+++ b/server/data/game_state.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Socket ID</t>
   </si>
@@ -22,22 +22,28 @@
     <t>Room ID</t>
   </si>
   <si>
-    <t>3HWZhBU-RBPMxNNeAAAB</t>
-  </si>
-  <si>
-    <t>Disconnected</t>
-  </si>
-  <si>
-    <t>JZKaC2sSfQsPvA4SAAAD</t>
+    <t>53eL6bqBk_Ou6kpRAAAB</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>91Uk4TyUbnmYE6K2AAAD</t>
+  </si>
+  <si>
+    <t>6HHgfK8rPLGDuL3FAAAF</t>
+  </si>
+  <si>
+    <t>uEyvgLIvDdyh8s7VAAAH</t>
+  </si>
+  <si>
+    <t>IfHYF6F-nUB4_FdyAAAJ</t>
   </si>
   <si>
     <t>InGame</t>
   </si>
   <si>
-    <t>room_JZKaC2sSfQsPvA4SAAAD_p0p_bxbByu-8cjfEAAAF</t>
-  </si>
-  <si>
-    <t>p0p_bxbByu-8cjfEAAAF</t>
+    <t>room_IfHYF6F-nUB4_FdyAAAJ_testRoom</t>
   </si>
 </sst>
 </file>
@@ -414,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -436,26 +442,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
